--- a/data/pca/factorExposure/factorExposure_2010-03-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-29.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01562050407532449</v>
+        <v>-0.01703286436227001</v>
       </c>
       <c r="C2">
-        <v>0.007096133481104393</v>
+        <v>0.001038954426001021</v>
       </c>
       <c r="D2">
-        <v>-0.01587970565376244</v>
+        <v>-0.00821547273018749</v>
       </c>
       <c r="E2">
-        <v>0.008953449063043378</v>
+        <v>3.454328244668038e-06</v>
       </c>
       <c r="F2">
-        <v>-0.01865993848629921</v>
+        <v>0.01019106273600162</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1211346808252364</v>
+        <v>-0.09349803117767023</v>
       </c>
       <c r="C4">
-        <v>0.06710753571611743</v>
+        <v>0.0160933491513453</v>
       </c>
       <c r="D4">
-        <v>-0.005517249808578898</v>
+        <v>-0.08460848568938809</v>
       </c>
       <c r="E4">
-        <v>-0.005364189816345649</v>
+        <v>0.03071112138352982</v>
       </c>
       <c r="F4">
-        <v>0.008047680724717487</v>
+        <v>-0.03086033284592128</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.120150517795034</v>
+        <v>-0.154780642486961</v>
       </c>
       <c r="C6">
-        <v>-0.002410819275800571</v>
+        <v>0.02466859576195468</v>
       </c>
       <c r="D6">
-        <v>-0.0143122423285152</v>
+        <v>0.0227087505394141</v>
       </c>
       <c r="E6">
-        <v>0.02732262111575192</v>
+        <v>0.008732602476005883</v>
       </c>
       <c r="F6">
-        <v>0.05426248082864248</v>
+        <v>-0.04938841045775816</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07450436012918851</v>
+        <v>-0.05911972773043595</v>
       </c>
       <c r="C7">
-        <v>0.06483279819800671</v>
+        <v>-0.0007327361277272143</v>
       </c>
       <c r="D7">
-        <v>-0.03053435467028535</v>
+        <v>-0.05224573083660237</v>
       </c>
       <c r="E7">
-        <v>0.02271024367802825</v>
+        <v>0.01540545048776614</v>
       </c>
       <c r="F7">
-        <v>-0.0299741319993477</v>
+        <v>-0.04921220865978538</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05368442647416418</v>
+        <v>-0.05775528469314875</v>
       </c>
       <c r="C8">
-        <v>0.03957539215213453</v>
+        <v>-0.01313932807598728</v>
       </c>
       <c r="D8">
-        <v>-0.01966141320694694</v>
+        <v>-0.03257901956051436</v>
       </c>
       <c r="E8">
-        <v>-0.009499318450641458</v>
+        <v>0.01575886428708976</v>
       </c>
       <c r="F8">
-        <v>0.02350219216242665</v>
+        <v>0.02960802801007519</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08661166667289646</v>
+        <v>-0.07119388037127279</v>
       </c>
       <c r="C9">
-        <v>0.05376448533802783</v>
+        <v>0.01216917783630621</v>
       </c>
       <c r="D9">
-        <v>-0.01468249478819672</v>
+        <v>-0.08371238742281478</v>
       </c>
       <c r="E9">
-        <v>-0.01427159722970305</v>
+        <v>0.0251014189741773</v>
       </c>
       <c r="F9">
-        <v>-0.008986032220804711</v>
+        <v>-0.0526506659336486</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1038639234306953</v>
+        <v>-0.09542633872026331</v>
       </c>
       <c r="C10">
-        <v>-0.1822036554544555</v>
+        <v>0.01777990972341208</v>
       </c>
       <c r="D10">
-        <v>0.003836884102352101</v>
+        <v>0.1715558564527545</v>
       </c>
       <c r="E10">
-        <v>0.006332273756492889</v>
+        <v>-0.0408248910752865</v>
       </c>
       <c r="F10">
-        <v>-0.04967668959376975</v>
+        <v>0.05374013644194385</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08023600355264614</v>
+        <v>-0.0874435714142517</v>
       </c>
       <c r="C11">
-        <v>0.05634916873509184</v>
+        <v>0.01163997660324798</v>
       </c>
       <c r="D11">
-        <v>-0.02526948236939171</v>
+        <v>-0.1144514374224999</v>
       </c>
       <c r="E11">
-        <v>-0.02016268040955158</v>
+        <v>0.04971309765681001</v>
       </c>
       <c r="F11">
-        <v>0.01200923642048312</v>
+        <v>-0.0190122024312994</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.08262386965760928</v>
+        <v>-0.09192775779185232</v>
       </c>
       <c r="C12">
-        <v>0.08347381455517988</v>
+        <v>0.00923534654774965</v>
       </c>
       <c r="D12">
-        <v>-0.03704425435388388</v>
+        <v>-0.1233575019549707</v>
       </c>
       <c r="E12">
-        <v>-0.06294711242039976</v>
+        <v>0.0487424660365916</v>
       </c>
       <c r="F12">
-        <v>-0.01761298349643334</v>
+        <v>-0.01922945420437248</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0316382074805829</v>
+        <v>-0.04276691032596077</v>
       </c>
       <c r="C13">
-        <v>0.03654250892011281</v>
+        <v>0.003791065658716843</v>
       </c>
       <c r="D13">
-        <v>-0.007884290782787701</v>
+        <v>-0.04758512666914173</v>
       </c>
       <c r="E13">
-        <v>0.0206178077468136</v>
+        <v>-0.01117665669516394</v>
       </c>
       <c r="F13">
-        <v>-0.01060426481194481</v>
+        <v>-0.01257465666646582</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03563738964450776</v>
+        <v>-0.02233736204856622</v>
       </c>
       <c r="C14">
-        <v>0.01135688960232265</v>
+        <v>0.01436375229181718</v>
       </c>
       <c r="D14">
-        <v>0.008000424985562256</v>
+        <v>-0.03131417720565243</v>
       </c>
       <c r="E14">
-        <v>-0.02146110893677634</v>
+        <v>0.01896101660915146</v>
       </c>
       <c r="F14">
-        <v>0.008346960641719463</v>
+        <v>-0.01698030669903101</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01720881982606824</v>
+        <v>-0.0314237320675131</v>
       </c>
       <c r="C15">
-        <v>0.008564342007289377</v>
+        <v>0.005438745371421142</v>
       </c>
       <c r="D15">
-        <v>-0.01280423374483335</v>
+        <v>-0.04503863082368711</v>
       </c>
       <c r="E15">
-        <v>0.04543356343034102</v>
+        <v>0.009188693021999345</v>
       </c>
       <c r="F15">
-        <v>-0.01848376981807174</v>
+        <v>-0.02936461066951962</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08689363308993105</v>
+        <v>-0.07319229394047785</v>
       </c>
       <c r="C16">
-        <v>0.06521924499686528</v>
+        <v>0.003052573969485144</v>
       </c>
       <c r="D16">
-        <v>-0.02822481243038737</v>
+        <v>-0.1182126374144426</v>
       </c>
       <c r="E16">
-        <v>-0.04422214919246927</v>
+        <v>0.06406506017271607</v>
       </c>
       <c r="F16">
-        <v>0.007496161522426782</v>
+        <v>-0.02795404008314709</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02384336140790057</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003458855089745878</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01820295610093266</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.00870935704387075</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.01666697711753017</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04829135002365303</v>
+        <v>-0.06052201931443536</v>
       </c>
       <c r="C20">
-        <v>0.03254407109957755</v>
+        <v>0.0006963025985073897</v>
       </c>
       <c r="D20">
-        <v>0.01639143081260288</v>
+        <v>-0.07441070649927042</v>
       </c>
       <c r="E20">
-        <v>0.02784801962653708</v>
+        <v>0.05597871190355042</v>
       </c>
       <c r="F20">
-        <v>-0.008869392417916771</v>
+        <v>-0.02711977174412664</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03204111951108309</v>
+        <v>-0.03884690383340258</v>
       </c>
       <c r="C21">
-        <v>0.003674042367432634</v>
+        <v>0.006980490839148893</v>
       </c>
       <c r="D21">
-        <v>0.02336486514147633</v>
+        <v>-0.03633847743320076</v>
       </c>
       <c r="E21">
-        <v>-0.0150418006197221</v>
+        <v>-0.00782933981461663</v>
       </c>
       <c r="F21">
-        <v>0.02640873294769844</v>
+        <v>0.02166235247938319</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03132916988233642</v>
+        <v>-0.04333744477521512</v>
       </c>
       <c r="C22">
-        <v>-0.02386925400496273</v>
+        <v>0.0004436508678268331</v>
       </c>
       <c r="D22">
-        <v>-0.05757538356526931</v>
+        <v>0.0002070116506696282</v>
       </c>
       <c r="E22">
-        <v>0.6046687662812803</v>
+        <v>0.02919761579541421</v>
       </c>
       <c r="F22">
-        <v>-0.1659981446031967</v>
+        <v>0.006793776373390515</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.0315575047124968</v>
+        <v>-0.04339149196666835</v>
       </c>
       <c r="C23">
-        <v>-0.02339373720979693</v>
+        <v>0.00046595940276957</v>
       </c>
       <c r="D23">
-        <v>-0.05877929693080314</v>
+        <v>8.036007762286577e-05</v>
       </c>
       <c r="E23">
-        <v>0.6079744496423923</v>
+        <v>0.02955693021045145</v>
       </c>
       <c r="F23">
-        <v>-0.1647151542430599</v>
+        <v>0.00634092850446421</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08798120882611697</v>
+        <v>-0.0796031267345839</v>
       </c>
       <c r="C24">
-        <v>0.065442927041256</v>
+        <v>0.003347121540750658</v>
       </c>
       <c r="D24">
-        <v>-0.01611625131793275</v>
+        <v>-0.1185509264732466</v>
       </c>
       <c r="E24">
-        <v>-0.03448181124524571</v>
+        <v>0.05195261416139803</v>
       </c>
       <c r="F24">
-        <v>-0.002989542792264059</v>
+        <v>-0.02074919941642983</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09328826998484745</v>
+        <v>-0.08470071989036956</v>
       </c>
       <c r="C25">
-        <v>0.05488763151878498</v>
+        <v>0.005426555691486836</v>
       </c>
       <c r="D25">
-        <v>-0.03076988844948204</v>
+        <v>-0.1072460929501085</v>
       </c>
       <c r="E25">
-        <v>-0.06535532912559654</v>
+        <v>0.03463974502298839</v>
       </c>
       <c r="F25">
-        <v>-0.01073901892922436</v>
+        <v>-0.0282342273635032</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.03796178938954007</v>
+        <v>-0.05451758596590393</v>
       </c>
       <c r="C26">
-        <v>-0.02368225234080903</v>
+        <v>0.01487680017325657</v>
       </c>
       <c r="D26">
-        <v>0.01774408700330286</v>
+        <v>-0.03801008067544103</v>
       </c>
       <c r="E26">
-        <v>0.01200906787477877</v>
+        <v>0.0278101487767837</v>
       </c>
       <c r="F26">
-        <v>0.02818377951620689</v>
+        <v>0.01259077403171383</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1105016180737091</v>
+        <v>-0.1435760165800687</v>
       </c>
       <c r="C28">
-        <v>-0.3123838830109059</v>
+        <v>0.01625673991594553</v>
       </c>
       <c r="D28">
-        <v>-0.02765194605290974</v>
+        <v>0.2657404012644293</v>
       </c>
       <c r="E28">
-        <v>-0.03973632768524483</v>
+        <v>-0.06981970664269012</v>
       </c>
       <c r="F28">
-        <v>0.006002251243314166</v>
+        <v>-0.028853135509149</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02978908469580698</v>
+        <v>-0.02699407994943482</v>
       </c>
       <c r="C29">
-        <v>0.008546137340643545</v>
+        <v>0.008777885961621767</v>
       </c>
       <c r="D29">
-        <v>-0.0006866358372235893</v>
+        <v>-0.0301310157620881</v>
       </c>
       <c r="E29">
-        <v>-0.03730285117094623</v>
+        <v>0.01195016198045672</v>
       </c>
       <c r="F29">
-        <v>-0.02819002247940819</v>
+        <v>0.0143311766606734</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.1023130369019789</v>
+        <v>-0.06250138768352939</v>
       </c>
       <c r="C30">
-        <v>0.1156258140822795</v>
+        <v>0.004511951536024661</v>
       </c>
       <c r="D30">
-        <v>-0.04120528887785632</v>
+        <v>-0.0867462278856836</v>
       </c>
       <c r="E30">
-        <v>-0.04816433772989959</v>
+        <v>0.02521968325197967</v>
       </c>
       <c r="F30">
-        <v>0.04191503983320295</v>
+        <v>-0.1034541987667941</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02890597599366036</v>
+        <v>-0.04823739059649183</v>
       </c>
       <c r="C31">
-        <v>0.02503316611782034</v>
+        <v>0.0149001973272568</v>
       </c>
       <c r="D31">
-        <v>0.004271864958908248</v>
+        <v>-0.02803139781840591</v>
       </c>
       <c r="E31">
-        <v>0.003401904143055719</v>
+        <v>0.02737861152359133</v>
       </c>
       <c r="F31">
-        <v>-0.001367198442374745</v>
+        <v>0.005157829962254962</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05937875242934681</v>
+        <v>-0.04772837768686385</v>
       </c>
       <c r="C32">
-        <v>0.01205346250944775</v>
+        <v>-0.0001907824624095206</v>
       </c>
       <c r="D32">
-        <v>0.01465717082122512</v>
+        <v>-0.03046177623862152</v>
       </c>
       <c r="E32">
-        <v>-0.06837536967557303</v>
+        <v>0.02993202493873327</v>
       </c>
       <c r="F32">
-        <v>0.0717903381212905</v>
+        <v>-0.002059165879972153</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09714322952054653</v>
+        <v>-0.08961106092182365</v>
       </c>
       <c r="C33">
-        <v>0.06712442231272008</v>
+        <v>0.008875222834422752</v>
       </c>
       <c r="D33">
-        <v>-0.07714001093093333</v>
+        <v>-0.09605908645102687</v>
       </c>
       <c r="E33">
-        <v>-0.02278669511096233</v>
+        <v>0.04739322564152967</v>
       </c>
       <c r="F33">
-        <v>-0.007457978942353149</v>
+        <v>-0.03977970101072677</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07515574561353552</v>
+        <v>-0.06728289819153425</v>
       </c>
       <c r="C34">
-        <v>0.05914436085433715</v>
+        <v>0.01184532459175126</v>
       </c>
       <c r="D34">
-        <v>-0.02068038594816691</v>
+        <v>-0.09880284305403769</v>
       </c>
       <c r="E34">
-        <v>-0.03715728609093036</v>
+        <v>0.03623164987849832</v>
       </c>
       <c r="F34">
-        <v>-0.0007969593497763103</v>
+        <v>-0.0377349008281651</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.009538167277880179</v>
+        <v>-0.02457176135655119</v>
       </c>
       <c r="C35">
-        <v>0.008756375481923481</v>
+        <v>0.002439148177503888</v>
       </c>
       <c r="D35">
-        <v>-0.00283707357025959</v>
+        <v>-0.01130294354163558</v>
       </c>
       <c r="E35">
-        <v>-0.003623862197176558</v>
+        <v>0.01096765274950299</v>
       </c>
       <c r="F35">
-        <v>-0.01152716589461727</v>
+        <v>-0.008930190978769466</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02677264994588928</v>
+        <v>-0.02436599923211898</v>
       </c>
       <c r="C36">
-        <v>0.004691959361210892</v>
+        <v>0.007206015246995071</v>
       </c>
       <c r="D36">
-        <v>-0.005040531439515801</v>
+        <v>-0.03747451257205246</v>
       </c>
       <c r="E36">
-        <v>0.007627869534538778</v>
+        <v>0.01800928190242643</v>
       </c>
       <c r="F36">
-        <v>0.01664157825137445</v>
+        <v>-0.01331536868275774</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.007257663545712138</v>
+        <v>-0.00143003580813935</v>
       </c>
       <c r="C38">
-        <v>0.008334468864967751</v>
+        <v>0.000224913302161606</v>
       </c>
       <c r="D38">
-        <v>-0.00627332035947138</v>
+        <v>-0.001034793482267003</v>
       </c>
       <c r="E38">
-        <v>0.02150431695206216</v>
+        <v>0.001238408466274868</v>
       </c>
       <c r="F38">
-        <v>-0.03118187918495494</v>
+        <v>0.0009212473124217408</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1265689147580417</v>
+        <v>-0.1077568833804376</v>
       </c>
       <c r="C39">
-        <v>0.1130508483155554</v>
+        <v>0.01688093610446918</v>
       </c>
       <c r="D39">
-        <v>-0.06094420661671344</v>
+        <v>-0.1550375921003616</v>
       </c>
       <c r="E39">
-        <v>-0.1445644592635788</v>
+        <v>0.06265945799641921</v>
       </c>
       <c r="F39">
-        <v>0.002863572309677502</v>
+        <v>-0.02353906347236238</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.008621959648381939</v>
+        <v>-0.03717017178499703</v>
       </c>
       <c r="C40">
-        <v>0.02700911096963021</v>
+        <v>0.007328030169851636</v>
       </c>
       <c r="D40">
-        <v>0.01060067624172566</v>
+        <v>-0.03148500187759128</v>
       </c>
       <c r="E40">
-        <v>0.06583705364382941</v>
+        <v>0.003390456821155203</v>
       </c>
       <c r="F40">
-        <v>-0.03545466161808406</v>
+        <v>0.01374383013965807</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02375697409604228</v>
+        <v>-0.02640936958239736</v>
       </c>
       <c r="C41">
-        <v>9.346235647556376e-05</v>
+        <v>0.00657092885677138</v>
       </c>
       <c r="D41">
-        <v>0.006431942169742553</v>
+        <v>-0.01159203975794606</v>
       </c>
       <c r="E41">
-        <v>-0.008082158820184485</v>
+        <v>0.01267308134193688</v>
       </c>
       <c r="F41">
-        <v>-0.009522040483456017</v>
+        <v>0.008521698346643744</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0361093224751985</v>
+        <v>-0.0404603178161627</v>
       </c>
       <c r="C43">
-        <v>0.001113081674408087</v>
+        <v>0.006781719265787524</v>
       </c>
       <c r="D43">
-        <v>-0.01504881271022141</v>
+        <v>-0.02100402858734582</v>
       </c>
       <c r="E43">
-        <v>-0.003569047582913949</v>
+        <v>0.02481310494130263</v>
       </c>
       <c r="F43">
-        <v>0.004347382512570785</v>
+        <v>0.01346537552496435</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1304006254111906</v>
+        <v>-0.07595546548938091</v>
       </c>
       <c r="C44">
-        <v>0.1494243708159912</v>
+        <v>0.02181585294167561</v>
       </c>
       <c r="D44">
-        <v>-0.05585281484817674</v>
+        <v>-0.0944807826629788</v>
       </c>
       <c r="E44">
-        <v>0.09723140649442752</v>
+        <v>0.07590267254115028</v>
       </c>
       <c r="F44">
-        <v>-0.1177000483816458</v>
+        <v>-0.183399618352296</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01836465856253823</v>
+        <v>-0.02246370988029142</v>
       </c>
       <c r="C46">
-        <v>-0.01288286511500811</v>
+        <v>0.003801749314556668</v>
       </c>
       <c r="D46">
-        <v>-0.01910560657665698</v>
+        <v>-0.01199976236920513</v>
       </c>
       <c r="E46">
-        <v>0.02186805163396534</v>
+        <v>0.02344693275013114</v>
       </c>
       <c r="F46">
-        <v>-0.02626081804479118</v>
+        <v>0.0003183636359402804</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.03810381474920036</v>
+        <v>-0.05166933891548612</v>
       </c>
       <c r="C47">
-        <v>0.01369201819552064</v>
+        <v>0.003268015748240764</v>
       </c>
       <c r="D47">
-        <v>0.006270863315661976</v>
+        <v>-0.01405418993302411</v>
       </c>
       <c r="E47">
-        <v>-0.00513040902174307</v>
+        <v>0.02225486008959514</v>
       </c>
       <c r="F47">
-        <v>0.000777255338615269</v>
+        <v>0.04438002897529794</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.03526969890360013</v>
+        <v>-0.04751442435564374</v>
       </c>
       <c r="C48">
-        <v>-0.004278703422085302</v>
+        <v>0.002756980859629392</v>
       </c>
       <c r="D48">
-        <v>-0.005764263194636948</v>
+        <v>-0.0492573281055278</v>
       </c>
       <c r="E48">
-        <v>-0.00833667226576061</v>
+        <v>-0.004014839867649195</v>
       </c>
       <c r="F48">
-        <v>-0.0005486382936796775</v>
+        <v>-0.01020531746157035</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2269576653107608</v>
+        <v>-0.2027019098658566</v>
       </c>
       <c r="C49">
-        <v>0.007621374566782173</v>
+        <v>0.01774620386636117</v>
       </c>
       <c r="D49">
-        <v>0.04557242540965548</v>
+        <v>0.01042401082896617</v>
       </c>
       <c r="E49">
-        <v>-0.01597651389642693</v>
+        <v>0.03309646377664156</v>
       </c>
       <c r="F49">
-        <v>-0.05440686053347236</v>
+        <v>-0.03054027132980669</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0378412700112537</v>
+        <v>-0.04814704022747697</v>
       </c>
       <c r="C50">
-        <v>0.02053713754820195</v>
+        <v>0.01109389585543022</v>
       </c>
       <c r="D50">
-        <v>0.008764242765765966</v>
+        <v>-0.0266452537585982</v>
       </c>
       <c r="E50">
-        <v>-0.009167871185922423</v>
+        <v>0.02989947665366097</v>
       </c>
       <c r="F50">
-        <v>-0.002825030496220263</v>
+        <v>-0.008529708946518924</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01156743746549145</v>
+        <v>-0.002179997986991624</v>
       </c>
       <c r="C51">
-        <v>-0.01545172041290749</v>
+        <v>0.0005544295533428413</v>
       </c>
       <c r="D51">
-        <v>-0.01477424130383696</v>
+        <v>0.00237336635890543</v>
       </c>
       <c r="E51">
-        <v>0.006501269111220457</v>
+        <v>-0.0001414027972400488</v>
       </c>
       <c r="F51">
-        <v>-0.01338267855157324</v>
+        <v>-0.004716342027047535</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1061107762789952</v>
+        <v>-0.1446878933952824</v>
       </c>
       <c r="C52">
-        <v>0.07651872759050304</v>
+        <v>0.01389930242572573</v>
       </c>
       <c r="D52">
-        <v>-0.01365433592457989</v>
+        <v>-0.05125960883011946</v>
       </c>
       <c r="E52">
-        <v>-0.009190123914734855</v>
+        <v>0.02482695551874911</v>
       </c>
       <c r="F52">
-        <v>-0.01033921036004747</v>
+        <v>-0.03374378443095294</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1618849098721984</v>
+        <v>-0.173939883415949</v>
       </c>
       <c r="C53">
-        <v>0.03477413827606925</v>
+        <v>0.01669962974239171</v>
       </c>
       <c r="D53">
-        <v>-0.008787245116448227</v>
+        <v>-0.01166800486371526</v>
       </c>
       <c r="E53">
-        <v>0.02454228247395673</v>
+        <v>0.03601430714267922</v>
       </c>
       <c r="F53">
-        <v>-0.03295600330914518</v>
+        <v>-0.0662786044552348</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04979970775817181</v>
+        <v>-0.02184875729624152</v>
       </c>
       <c r="C54">
-        <v>0.02733908069970132</v>
+        <v>0.01221938181954888</v>
       </c>
       <c r="D54">
-        <v>0.002134199789819876</v>
+        <v>-0.03315349637024233</v>
       </c>
       <c r="E54">
-        <v>0.02440849953402202</v>
+        <v>0.01561295890992309</v>
       </c>
       <c r="F54">
-        <v>-0.0004154680245266646</v>
+        <v>0.006218581404606321</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08284678409191186</v>
+        <v>-0.1142801698069323</v>
       </c>
       <c r="C55">
-        <v>0.02553277973603681</v>
+        <v>0.01552217688594793</v>
       </c>
       <c r="D55">
-        <v>-0.05509311469582753</v>
+        <v>-0.0109263406504211</v>
       </c>
       <c r="E55">
-        <v>-0.02444952610994027</v>
+        <v>0.03051033447975919</v>
       </c>
       <c r="F55">
-        <v>-0.007942849483058654</v>
+        <v>-0.04488715876181881</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1560258848745521</v>
+        <v>-0.1775065513909038</v>
       </c>
       <c r="C56">
-        <v>0.05252091314020466</v>
+        <v>0.01412670197464757</v>
       </c>
       <c r="D56">
-        <v>-0.01707917764005519</v>
+        <v>-0.007768864400145492</v>
       </c>
       <c r="E56">
-        <v>-0.008705489402382964</v>
+        <v>0.04011148226562439</v>
       </c>
       <c r="F56">
-        <v>-0.05186773173249999</v>
+        <v>-0.04219277230288168</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05056881554621219</v>
+        <v>-0.04651495969996568</v>
       </c>
       <c r="C58">
-        <v>0.01087239259866947</v>
+        <v>0.001546525587066268</v>
       </c>
       <c r="D58">
-        <v>0.004409613444970348</v>
+        <v>-0.06618084671481804</v>
       </c>
       <c r="E58">
-        <v>0.05298982352718815</v>
+        <v>0.02405248618292192</v>
       </c>
       <c r="F58">
-        <v>-0.01839833542371611</v>
+        <v>0.04353948296468655</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1758513192119307</v>
+        <v>-0.1725083408546484</v>
       </c>
       <c r="C59">
-        <v>-0.253600352487466</v>
+        <v>0.01712578276679246</v>
       </c>
       <c r="D59">
-        <v>-0.04634695552011368</v>
+        <v>0.2232540812940559</v>
       </c>
       <c r="E59">
-        <v>-0.04769818976741284</v>
+        <v>-0.04967442369927168</v>
       </c>
       <c r="F59">
-        <v>-0.01656172105922432</v>
+        <v>0.03257755417705658</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2738229700514466</v>
+        <v>-0.2357959873288063</v>
       </c>
       <c r="C60">
-        <v>0.1733942363194982</v>
+        <v>-0.003843071007470679</v>
       </c>
       <c r="D60">
-        <v>0.03312340286377093</v>
+        <v>-0.0476978675408692</v>
       </c>
       <c r="E60">
-        <v>-0.06186940735467671</v>
+        <v>0.007581413937031324</v>
       </c>
       <c r="F60">
-        <v>-0.1843217002071431</v>
+        <v>0.03088889778799967</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1164251636817702</v>
+        <v>-0.08311086799890248</v>
       </c>
       <c r="C61">
-        <v>0.0727995282444851</v>
+        <v>0.01289095307688877</v>
       </c>
       <c r="D61">
-        <v>-0.04164912608847628</v>
+        <v>-0.114542042814912</v>
       </c>
       <c r="E61">
-        <v>-0.0869708126343509</v>
+        <v>0.04241329035705917</v>
       </c>
       <c r="F61">
-        <v>-0.02789725487540044</v>
+        <v>-0.01279062088338549</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1564525400902373</v>
+        <v>-0.1700559643399012</v>
       </c>
       <c r="C62">
-        <v>0.04304886400774541</v>
+        <v>0.0178575393108907</v>
       </c>
       <c r="D62">
-        <v>-0.0279267270922375</v>
+        <v>-0.01172226657647303</v>
       </c>
       <c r="E62">
-        <v>0.007771092917830544</v>
+        <v>0.03684199366914973</v>
       </c>
       <c r="F62">
-        <v>-0.04564524250600768</v>
+        <v>-0.02329035371743712</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.03660973140104317</v>
+        <v>-0.04206774665771893</v>
       </c>
       <c r="C63">
-        <v>-0.0135997058043741</v>
+        <v>0.002888827947961158</v>
       </c>
       <c r="D63">
-        <v>-0.007442307032552856</v>
+        <v>-0.05189824668230195</v>
       </c>
       <c r="E63">
-        <v>-0.002350181538653496</v>
+        <v>0.02249957768712667</v>
       </c>
       <c r="F63">
-        <v>0.04486113029300016</v>
+        <v>-0.00539526602286885</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09407688639614789</v>
+        <v>-0.1116855612701649</v>
       </c>
       <c r="C64">
-        <v>0.01962393652022544</v>
+        <v>0.01131042902284653</v>
       </c>
       <c r="D64">
-        <v>-0.000511738962200184</v>
+        <v>-0.04373751277140931</v>
       </c>
       <c r="E64">
-        <v>-0.009608205989923515</v>
+        <v>0.02075197679577856</v>
       </c>
       <c r="F64">
-        <v>-0.06279223562692647</v>
+        <v>-0.02519620323061932</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1150208729506706</v>
+        <v>-0.1459198342157953</v>
       </c>
       <c r="C65">
-        <v>-0.006874771973769923</v>
+        <v>0.03130081770300965</v>
       </c>
       <c r="D65">
-        <v>-0.01048357935373577</v>
+        <v>0.04351339523904326</v>
       </c>
       <c r="E65">
-        <v>-0.009063039805071758</v>
+        <v>-0.001168993715113106</v>
       </c>
       <c r="F65">
-        <v>0.05808637018145012</v>
+        <v>-0.04940710534595608</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1429530627033556</v>
+        <v>-0.1287677504888244</v>
       </c>
       <c r="C66">
-        <v>0.1232038793779425</v>
+        <v>0.01469329699660405</v>
       </c>
       <c r="D66">
-        <v>-0.05012012979223923</v>
+        <v>-0.1427581623978077</v>
       </c>
       <c r="E66">
-        <v>-0.1198609778719704</v>
+        <v>0.06935957396049791</v>
       </c>
       <c r="F66">
-        <v>-0.01427806011683496</v>
+        <v>-0.0292701823531602</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.0659556278647095</v>
+        <v>-0.06198776059713505</v>
       </c>
       <c r="C67">
-        <v>0.04496642330013424</v>
+        <v>0.003194934190447059</v>
       </c>
       <c r="D67">
-        <v>-0.08380005388242469</v>
+        <v>-0.05350071576634838</v>
       </c>
       <c r="E67">
-        <v>0.02036516688850606</v>
+        <v>0.01753535474532339</v>
       </c>
       <c r="F67">
-        <v>-0.02167854682980892</v>
+        <v>0.04068732821550101</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.09785393406591668</v>
+        <v>-0.1171073264367536</v>
       </c>
       <c r="C68">
-        <v>-0.268820531327824</v>
+        <v>0.02691148069792432</v>
       </c>
       <c r="D68">
-        <v>-0.01291471688010583</v>
+        <v>0.2614420875356</v>
       </c>
       <c r="E68">
-        <v>-0.04482051916173742</v>
+        <v>-0.08826903354218138</v>
       </c>
       <c r="F68">
-        <v>0.02764788526355843</v>
+        <v>-0.03210671931057458</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03281467344457004</v>
+        <v>-0.03922614850615398</v>
       </c>
       <c r="C69">
-        <v>-0.006548866884437136</v>
+        <v>0.0009924250853859307</v>
       </c>
       <c r="D69">
-        <v>-0.03259222195317719</v>
+        <v>-0.009793107432837357</v>
       </c>
       <c r="E69">
-        <v>0.0008662994284222438</v>
+        <v>0.02419023418654965</v>
       </c>
       <c r="F69">
-        <v>-0.01414541971743469</v>
+        <v>0.01062820337647275</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.03237285264883708</v>
+        <v>-0.06247075189279095</v>
       </c>
       <c r="C70">
-        <v>-0.006941723984651313</v>
+        <v>-0.02836112601113556</v>
       </c>
       <c r="D70">
-        <v>-0.04125620167749377</v>
+        <v>-0.02978196303579565</v>
       </c>
       <c r="E70">
-        <v>-0.03906095078931045</v>
+        <v>-0.05109726187354208</v>
       </c>
       <c r="F70">
-        <v>-0.03979922827977883</v>
+        <v>0.2740915351098589</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.113156127698878</v>
+        <v>-0.1363345213281042</v>
       </c>
       <c r="C71">
-        <v>-0.2830913652864768</v>
+        <v>0.03118273295683154</v>
       </c>
       <c r="D71">
-        <v>-0.02898483202019309</v>
+        <v>0.2763534873482537</v>
       </c>
       <c r="E71">
-        <v>-0.03847468968431736</v>
+        <v>-0.09659319799834293</v>
       </c>
       <c r="F71">
-        <v>-0.01827838472875871</v>
+        <v>-0.03806410362738019</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1437076291372219</v>
+        <v>-0.141060246116119</v>
       </c>
       <c r="C72">
-        <v>-0.006998063794057088</v>
+        <v>0.02466405569174705</v>
       </c>
       <c r="D72">
-        <v>-0.0006522352526559675</v>
+        <v>-0.004758619706439168</v>
       </c>
       <c r="E72">
-        <v>0.01077782517934251</v>
+        <v>0.04508954010986048</v>
       </c>
       <c r="F72">
-        <v>0.009103555809846354</v>
+        <v>-0.02495388273831469</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2258006119483587</v>
+        <v>-0.2030089137417705</v>
       </c>
       <c r="C73">
-        <v>0.0545588342017656</v>
+        <v>0.01184201377970042</v>
       </c>
       <c r="D73">
-        <v>-0.0565814193502374</v>
+        <v>-0.01643251659918867</v>
       </c>
       <c r="E73">
-        <v>-0.0633384474090118</v>
+        <v>0.06301036592109796</v>
       </c>
       <c r="F73">
-        <v>-0.1242218325183461</v>
+        <v>-0.03272610184703337</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1169060731716089</v>
+        <v>-0.09441379253661118</v>
       </c>
       <c r="C74">
-        <v>0.04543872060243144</v>
+        <v>0.01231971822977852</v>
       </c>
       <c r="D74">
-        <v>-0.02253734266076937</v>
+        <v>-0.02081840774776637</v>
       </c>
       <c r="E74">
-        <v>0.0107761671090793</v>
+        <v>0.04887429952364478</v>
       </c>
       <c r="F74">
-        <v>-0.01594910100528144</v>
+        <v>-0.04861599982000333</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1177532794300852</v>
+        <v>-0.1294267161889962</v>
       </c>
       <c r="C75">
-        <v>0.05067615509540397</v>
+        <v>0.02657801281597244</v>
       </c>
       <c r="D75">
-        <v>-0.002958294228698465</v>
+        <v>-0.03437264266340953</v>
       </c>
       <c r="E75">
-        <v>0.009680468983361976</v>
+        <v>0.06089735188014433</v>
       </c>
       <c r="F75">
-        <v>0.01060989306545739</v>
+        <v>-0.01363832880085988</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01950862659634202</v>
+        <v>-0.003487979537671156</v>
       </c>
       <c r="C76">
-        <v>-0.0157826771960284</v>
+        <v>0.0008334259449651776</v>
       </c>
       <c r="D76">
-        <v>-0.01098783150063256</v>
+        <v>0.002582314259754533</v>
       </c>
       <c r="E76">
-        <v>-0.007495811950401441</v>
+        <v>0.0004407913070937631</v>
       </c>
       <c r="F76">
-        <v>-0.02044259165245631</v>
+        <v>-0.003901503508929124</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06931668880099123</v>
+        <v>-0.07869873233698192</v>
       </c>
       <c r="C77">
-        <v>0.1108309203402854</v>
+        <v>0.00916123828266523</v>
       </c>
       <c r="D77">
-        <v>0.009360737237671423</v>
+        <v>-0.1161856870499285</v>
       </c>
       <c r="E77">
-        <v>-0.007793847240633383</v>
+        <v>0.03816143738145207</v>
       </c>
       <c r="F77">
-        <v>-0.06533986577254147</v>
+        <v>-0.03146903971254883</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1197262237699504</v>
+        <v>-0.1042741147955107</v>
       </c>
       <c r="C78">
-        <v>0.03899750604301263</v>
+        <v>0.04083204011721906</v>
       </c>
       <c r="D78">
-        <v>-0.0839788206332357</v>
+        <v>-0.1154143991860765</v>
       </c>
       <c r="E78">
-        <v>0.3217541726764304</v>
+        <v>0.08136246395899641</v>
       </c>
       <c r="F78">
-        <v>0.2907703301136187</v>
+        <v>-0.06819904383779327</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1333240624338215</v>
+        <v>-0.164067909691727</v>
       </c>
       <c r="C79">
-        <v>0.04984607609310603</v>
+        <v>0.02067591325701558</v>
       </c>
       <c r="D79">
-        <v>0.01583590166605691</v>
+        <v>-0.01936203089330849</v>
       </c>
       <c r="E79">
-        <v>0.0006984502293384339</v>
+        <v>0.04987474849560421</v>
       </c>
       <c r="F79">
-        <v>-0.0233455948782556</v>
+        <v>-0.004398224408959896</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08215276665783951</v>
+        <v>-0.08085168757834094</v>
       </c>
       <c r="C80">
-        <v>0.06758591332535573</v>
+        <v>-0.0008497543234783313</v>
       </c>
       <c r="D80">
-        <v>-0.07439937867367508</v>
+        <v>-0.05730948519355082</v>
       </c>
       <c r="E80">
-        <v>-0.02559060152142197</v>
+        <v>0.03683543273397</v>
       </c>
       <c r="F80">
-        <v>0.001303364845640711</v>
+        <v>0.01707468124134566</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1384019364883538</v>
+        <v>-0.1232818410291018</v>
       </c>
       <c r="C81">
-        <v>0.06070622048799069</v>
+        <v>0.030371563149875</v>
       </c>
       <c r="D81">
-        <v>-0.009859450967967002</v>
+        <v>-0.0187935344002557</v>
       </c>
       <c r="E81">
-        <v>0.009111935233523109</v>
+        <v>0.06002908369305582</v>
       </c>
       <c r="F81">
-        <v>-0.01285210512128531</v>
+        <v>-0.006671786255698569</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1583590446432893</v>
+        <v>-0.1640840481025363</v>
       </c>
       <c r="C82">
-        <v>0.0468911689611968</v>
+        <v>0.02220204343210834</v>
       </c>
       <c r="D82">
-        <v>-0.02970008474360424</v>
+        <v>-0.01374521247626148</v>
       </c>
       <c r="E82">
-        <v>-0.0234343624503671</v>
+        <v>0.03613378129329505</v>
       </c>
       <c r="F82">
-        <v>-0.04132122617284745</v>
+        <v>-0.06674944215050772</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.09350849503011233</v>
+        <v>-0.06241807285033905</v>
       </c>
       <c r="C83">
-        <v>0.1019528737157995</v>
+        <v>0.00327016542434345</v>
       </c>
       <c r="D83">
-        <v>0.01577564529262818</v>
+        <v>-0.05065282089684463</v>
       </c>
       <c r="E83">
-        <v>0.0376711846879818</v>
+        <v>0.005281014813684941</v>
       </c>
       <c r="F83">
-        <v>0.03135959546635329</v>
+        <v>0.04347625226337257</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06468484857142999</v>
+        <v>-0.05897398304947834</v>
       </c>
       <c r="C84">
-        <v>-0.007675047353131182</v>
+        <v>0.01089687063515798</v>
       </c>
       <c r="D84">
-        <v>0.009035997516723631</v>
+        <v>-0.06480402603317904</v>
       </c>
       <c r="E84">
-        <v>-0.07183761106752205</v>
+        <v>0.003502125769539457</v>
       </c>
       <c r="F84">
-        <v>-0.05694076198317905</v>
+        <v>-0.01143486153179381</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1255959382700695</v>
+        <v>-0.1390065552730047</v>
       </c>
       <c r="C85">
-        <v>0.03487464516478001</v>
+        <v>0.02622234965805754</v>
       </c>
       <c r="D85">
-        <v>-0.008918803353828896</v>
+        <v>-0.0150289761635396</v>
       </c>
       <c r="E85">
-        <v>0.0005904435474703589</v>
+        <v>0.04166991263059468</v>
       </c>
       <c r="F85">
-        <v>-0.03686239906044637</v>
+        <v>-0.04588609468390207</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1599271380103005</v>
+        <v>-0.09470948162847299</v>
       </c>
       <c r="C86">
-        <v>0.02555902993900666</v>
+        <v>-0.006509696802925648</v>
       </c>
       <c r="D86">
-        <v>0.9369473716636371</v>
+        <v>-0.0225942552592978</v>
       </c>
       <c r="E86">
-        <v>0.06646290544099098</v>
+        <v>0.1499599735391283</v>
       </c>
       <c r="F86">
-        <v>0.03586089453889434</v>
+        <v>0.8709099107119019</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.120046313623174</v>
+        <v>-0.09634455563408428</v>
       </c>
       <c r="C87">
-        <v>0.1285177978606121</v>
+        <v>0.02211008982512338</v>
       </c>
       <c r="D87">
-        <v>-0.01396847109027173</v>
+        <v>-0.08995519279138728</v>
       </c>
       <c r="E87">
-        <v>-0.007574066735807045</v>
+        <v>-0.05420979696374011</v>
       </c>
       <c r="F87">
-        <v>-0.04616989823919154</v>
+        <v>-0.08160524817406588</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05174967314903088</v>
+        <v>-0.06114946036103847</v>
       </c>
       <c r="C88">
-        <v>0.0250390279899442</v>
+        <v>0.00257008506366505</v>
       </c>
       <c r="D88">
-        <v>-0.02080221104864645</v>
+        <v>-0.05427452474806477</v>
       </c>
       <c r="E88">
-        <v>-0.05711618262200474</v>
+        <v>0.02742672719420226</v>
       </c>
       <c r="F88">
-        <v>-0.0003958977168031189</v>
+        <v>-0.009358127218601997</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1654330892663599</v>
+        <v>-0.1362166553502875</v>
       </c>
       <c r="C89">
-        <v>-0.3624660330520147</v>
+        <v>0.009463066614720815</v>
       </c>
       <c r="D89">
-        <v>-0.03149567581130055</v>
+        <v>0.254763758665241</v>
       </c>
       <c r="E89">
-        <v>0.0361137845002116</v>
+        <v>-0.09278032592218009</v>
       </c>
       <c r="F89">
-        <v>-0.0324099654539268</v>
+        <v>-0.01644572827650045</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.125742710735659</v>
+        <v>-0.1476857039920332</v>
       </c>
       <c r="C90">
-        <v>-0.2729796434997502</v>
+        <v>0.02697906117261352</v>
       </c>
       <c r="D90">
-        <v>-0.01849437526332114</v>
+        <v>0.266547947139424</v>
       </c>
       <c r="E90">
-        <v>-0.05651614889945598</v>
+        <v>-0.109403092756121</v>
       </c>
       <c r="F90">
-        <v>-0.01716585984203687</v>
+        <v>-0.02075459325006291</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08337185476593377</v>
+        <v>-0.119396500562284</v>
       </c>
       <c r="C91">
-        <v>0.04035720986264381</v>
+        <v>0.0169243384139219</v>
       </c>
       <c r="D91">
-        <v>0.01594027288795685</v>
+        <v>0.008124149018166211</v>
       </c>
       <c r="E91">
-        <v>0.0008738075337749689</v>
+        <v>0.05761585710908226</v>
       </c>
       <c r="F91">
-        <v>-0.02803767480835826</v>
+        <v>0.01697011026701138</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1406993996998672</v>
+        <v>-0.1504673336538365</v>
       </c>
       <c r="C92">
-        <v>-0.3222784466763297</v>
+        <v>0.01877348819191645</v>
       </c>
       <c r="D92">
-        <v>-0.02411664996341679</v>
+        <v>0.2949857236192533</v>
       </c>
       <c r="E92">
-        <v>0.008420335346277041</v>
+        <v>-0.1052002918188062</v>
       </c>
       <c r="F92">
-        <v>-0.001528287611166161</v>
+        <v>-0.01544802333278227</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1285346871375242</v>
+        <v>-0.1518846739705009</v>
       </c>
       <c r="C93">
-        <v>-0.3159204016710522</v>
+        <v>0.02295995340867787</v>
       </c>
       <c r="D93">
-        <v>-0.004158164048983376</v>
+        <v>0.2659672060122642</v>
       </c>
       <c r="E93">
-        <v>-0.08344181695986051</v>
+        <v>-0.07637722946917866</v>
       </c>
       <c r="F93">
-        <v>-0.02969851557008676</v>
+        <v>-0.01536716057992035</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.138718691415549</v>
+        <v>-0.1326525441210417</v>
       </c>
       <c r="C94">
-        <v>0.04990276552147545</v>
+        <v>0.02384652807756123</v>
       </c>
       <c r="D94">
-        <v>-0.03984592528114348</v>
+        <v>-0.04581041949802134</v>
       </c>
       <c r="E94">
-        <v>0.02150763232624683</v>
+        <v>0.06137946257570111</v>
       </c>
       <c r="F94">
-        <v>-0.01690381229338979</v>
+        <v>-0.03204099658965723</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1140390511410043</v>
+        <v>-0.1258215573489875</v>
       </c>
       <c r="C95">
-        <v>0.024441577170447</v>
+        <v>0.005047949460592688</v>
       </c>
       <c r="D95">
-        <v>-0.02426926526826691</v>
+        <v>-0.08964171484339087</v>
       </c>
       <c r="E95">
-        <v>0.02692596046714418</v>
+        <v>0.04414028540578262</v>
       </c>
       <c r="F95">
-        <v>-0.04088608992790354</v>
+        <v>0.01409624325481299</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01379838364473617</v>
+        <v>-0.09917000895049158</v>
       </c>
       <c r="C96">
-        <v>0.000817945213452288</v>
+        <v>-0.9887750792313049</v>
       </c>
       <c r="D96">
-        <v>0.002130000293586585</v>
+        <v>0.03359089711876222</v>
       </c>
       <c r="E96">
-        <v>0.007409818116306667</v>
+        <v>0.05850692520151925</v>
       </c>
       <c r="F96">
-        <v>0.003507980470115129</v>
+        <v>-0.04603235039781895</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1766512789279785</v>
+        <v>-0.1891331979433088</v>
       </c>
       <c r="C97">
-        <v>0.03176482115651237</v>
+        <v>-0.01047030907690104</v>
       </c>
       <c r="D97">
-        <v>-0.04503514225000353</v>
+        <v>0.009354526419178711</v>
       </c>
       <c r="E97">
-        <v>0.1129754351819325</v>
+        <v>0.01719675455018586</v>
       </c>
       <c r="F97">
-        <v>0.8529086958403455</v>
+        <v>0.158276323510657</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2426318792748901</v>
+        <v>-0.2052974904907584</v>
       </c>
       <c r="C98">
-        <v>-0.007139645716279042</v>
+        <v>0.007092950597664052</v>
       </c>
       <c r="D98">
-        <v>0.01658747385152785</v>
+        <v>-0.009747331567811853</v>
       </c>
       <c r="E98">
-        <v>0.08803742808404202</v>
+        <v>-0.09849172000514814</v>
       </c>
       <c r="F98">
-        <v>-0.01545118827051811</v>
+        <v>0.1108671691914839</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.03957154613402267</v>
+        <v>-0.05553049705708353</v>
       </c>
       <c r="C99">
-        <v>-0.01087758055134645</v>
+        <v>-0.003925674727819324</v>
       </c>
       <c r="D99">
-        <v>-0.03690666199971613</v>
+        <v>-0.03616823929378629</v>
       </c>
       <c r="E99">
-        <v>0.01995595352628469</v>
+        <v>0.02741250812469214</v>
       </c>
       <c r="F99">
-        <v>-0.009630470238594129</v>
+        <v>-0.002967753245723632</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.04250851033895219</v>
+        <v>-0.1223668775400525</v>
       </c>
       <c r="C100">
-        <v>0.0886407902050373</v>
+        <v>-0.05186249822393034</v>
       </c>
       <c r="D100">
-        <v>-0.1976235761700476</v>
+        <v>-0.3503263276531214</v>
       </c>
       <c r="E100">
-        <v>-0.04289411092772291</v>
+        <v>-0.8928306601404796</v>
       </c>
       <c r="F100">
-        <v>0.05114463735662434</v>
+        <v>0.07206209873187071</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02942729775379154</v>
+        <v>-0.02692612725447827</v>
       </c>
       <c r="C101">
-        <v>0.008939976119170107</v>
+        <v>0.008785262533699004</v>
       </c>
       <c r="D101">
-        <v>-0.001382218682316802</v>
+        <v>-0.02983713220745134</v>
       </c>
       <c r="E101">
-        <v>-0.0380078727394347</v>
+        <v>0.0114490501945043</v>
       </c>
       <c r="F101">
-        <v>-0.02785720891086584</v>
+        <v>0.0161287364781071</v>
       </c>
     </row>
     <row r="102" spans="1:6">
